--- a/allTest_prod_a1052.xlsx
+++ b/allTest_prod_a1052.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="count and max test" sheetId="1" r:id="rId1"/>
-    <sheet name="count max compare test" sheetId="2" r:id="rId2"/>
+    <sheet name="ins countMaxCompare" sheetId="2" r:id="rId2"/>
     <sheet name="dup check test" sheetId="3" r:id="rId3"/>
     <sheet name="aco x dup month" sheetId="4" r:id="rId4"/>
+    <sheet name="ods count and max test" sheetId="5" r:id="rId5"/>
+    <sheet name="ods countMaxCompare" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
   <si>
     <t>tableName</t>
   </si>
@@ -131,6 +133,108 @@
   </si>
   <si>
     <t>DUPMOCNT</t>
+  </si>
+  <si>
+    <t>cclf_0_summ_stat</t>
+  </si>
+  <si>
+    <t>cclf_1_pt_a_clm_hdr</t>
+  </si>
+  <si>
+    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
+  </si>
+  <si>
+    <t>cclf_3_pt_a_proc_cd</t>
+  </si>
+  <si>
+    <t>cclf_4_pt_a_diag_cd</t>
+  </si>
+  <si>
+    <t>cclf_5_pt_b_phys</t>
+  </si>
+  <si>
+    <t>cclf_6_pt_b_dme</t>
+  </si>
+  <si>
+    <t>cclf_7_pt_d</t>
+  </si>
+  <si>
+    <t>cclf_8_bene_demo</t>
+  </si>
+  <si>
+    <t>cclf_assgn_0_header</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_hcc</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_summ</t>
+  </si>
+  <si>
+    <t>cclf_assgn_2_tin</t>
+  </si>
+  <si>
+    <t>cclf_assgn_3_ccn</t>
+  </si>
+  <si>
+    <t>cclf_assgn_4_tin_npi</t>
+  </si>
+  <si>
+    <t>cclf_assgn_5_turnover</t>
+  </si>
+  <si>
+    <t>cclf_assgn_6_assgnbl</t>
+  </si>
+  <si>
+    <t>cclf_a_pt_a_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_benchmark_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_b_pt_b_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_expu_0_header</t>
+  </si>
+  <si>
+    <t>cclf_expu_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_regional</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_snf</t>
+  </si>
+  <si>
+    <t>cclf_expu_3_snf</t>
+  </si>
+  <si>
+    <t>cclf_ng_align</t>
+  </si>
+  <si>
+    <t>nh_network_model_0_hdr</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>q-2021-3</t>
+  </si>
+  <si>
+    <t>q-2021-2</t>
+  </si>
+  <si>
+    <t>y-2021</t>
+  </si>
+  <si>
+    <t>q-2019-2</t>
+  </si>
+  <si>
+    <t>q-2020-4</t>
+  </si>
+  <si>
+    <t>2021-07</t>
   </si>
 </sst>
 </file>
@@ -1451,4 +1555,1492 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>521681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>3861722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>37715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>2432328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>4298184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>358933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>3783156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>151449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44455</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>217158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>137829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>77117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>94848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>594696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44291</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>5346386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>693</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2">
+        <v>671</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>521681</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3">
+        <v>512093</v>
+      </c>
+      <c r="K3">
+        <v>9588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>3861722</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4">
+        <v>3787681</v>
+      </c>
+      <c r="K4">
+        <v>74041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>37715</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5">
+        <v>37164</v>
+      </c>
+      <c r="K5">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>2432328</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6">
+        <v>2380214</v>
+      </c>
+      <c r="K6">
+        <v>52114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>4298184</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7">
+        <v>4227727</v>
+      </c>
+      <c r="K7">
+        <v>70457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>358933</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8">
+        <v>352618</v>
+      </c>
+      <c r="K8">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>3783156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9">
+        <v>3740735</v>
+      </c>
+      <c r="K9">
+        <v>42421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>151449</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>137260</v>
+      </c>
+      <c r="K10">
+        <v>14189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44455</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44342</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>217158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44361</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <v>203561</v>
+      </c>
+      <c r="K12">
+        <v>13597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>137829</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44361</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13">
+        <v>129699</v>
+      </c>
+      <c r="K13">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>77117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44361</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14">
+        <v>77117</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>12970</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44361</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <v>11045</v>
+      </c>
+      <c r="K15">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>94848</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44361</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16">
+        <v>90720</v>
+      </c>
+      <c r="K16">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>594696</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19">
+        <v>585108</v>
+      </c>
+      <c r="K19">
+        <v>9588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44291</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>307</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44291</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20">
+        <v>307</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>5346386</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44400</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21">
+        <v>5275929</v>
+      </c>
+      <c r="K21">
+        <v>70457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44342</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>856</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44342</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23">
+        <v>794</v>
+      </c>
+      <c r="K23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44342</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2">
+        <v>43621</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25">
+        <v>95</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44153</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26">
+        <v>114</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>